--- a/top10_by_medium_2024_20250814_162119.xlsx
+++ b/top10_by_medium_2024_20250814_162119.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workz\geo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A4CFC3-86E9-4541-A534-8C3B6E140D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Air_2024_TOP10" sheetId="1" r:id="rId1"/>
     <sheet name="Water_2024_TOP10" sheetId="2" r:id="rId2"/>
     <sheet name="MSW_2024_TOP10" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -195,8 +201,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,17 +261,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -303,7 +317,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -337,6 +351,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -371,9 +386,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -546,14 +562,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,12 +583,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>8594618.810000001</v>
+        <v>8594618.8100000005</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -581,7 +597,7 @@
         <v>98.52</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -595,7 +611,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -609,7 +625,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -623,7 +639,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -637,7 +653,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -651,7 +667,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -665,7 +681,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -679,7 +695,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -693,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -713,14 +729,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,7 +756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -748,7 +770,7 @@
         <v>45.48</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -762,7 +784,7 @@
         <v>24.06</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -776,7 +798,7 @@
         <v>11.89</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -790,7 +812,7 @@
         <v>9.09</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -804,7 +826,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -818,12 +840,12 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8">
-        <v>139.08</v>
+        <v>139.08000000000001</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
@@ -832,7 +854,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -846,21 +868,21 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
       <c r="B10">
-        <v>8.539999999999999</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
       </c>
       <c r="D10">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -880,14 +902,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,12 +923,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
       <c r="B2">
-        <v>573098.92</v>
+        <v>573098.92000000004</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
@@ -915,7 +937,7 @@
         <v>98.62</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -929,7 +951,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -943,7 +965,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -957,7 +979,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -971,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -985,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -999,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1010,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1021,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
